--- a/data/trans_orig/P19C03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{561C3BCC-2579-4EEC-AFCE-FC1B2F3FB6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC32082-00E7-4C0A-A961-9ACF3ED824D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60DF66A9-CF41-45F5-AC4D-962284C6DA72}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB73CD2F-B7AB-4D71-B4A4-677FEACF3011}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2007 (Tasa respuesta: 78,1%)</t>
   </si>
@@ -77,1468 +77,1498 @@
     <t>36,18%</t>
   </si>
   <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
     <t>28,45%</t>
   </si>
   <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
   </si>
   <si>
     <t>71,55%</t>
   </si>
   <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
   </si>
   <si>
     <t>30,17%</t>
   </si>
   <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
   </si>
   <si>
     <t>69,83%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
   </si>
   <si>
     <t>22,05%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>77,95%</t>
   </si>
   <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>79,04%</t>
   </si>
   <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
   </si>
   <si>
     <t>78,51%</t>
   </si>
   <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>19,93%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>21,33%</t>
   </si>
   <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
   </si>
   <si>
     <t>20,64%</t>
   </si>
   <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
   </si>
   <si>
     <t>82,03%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
   </si>
   <si>
     <t>10,43%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>8,32%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>89,57%</t>
   </si>
   <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>89,43%</t>
   </si>
   <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
   </si>
   <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>18,72%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>18,01%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>81,28%</t>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>81,99%</t>
   </si>
   <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB9E05-B8E0-42A4-A27A-F0074CD4C5B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775BA65E-D75D-43B4-85E7-C7083B506851}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2390,7 +2420,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>215</v>
@@ -2399,13 +2429,13 @@
         <v>224343</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>400</v>
@@ -2414,13 +2444,13 @@
         <v>418068</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2465,13 @@
         <v>308167</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>360</v>
@@ -2450,13 +2480,13 @@
         <v>379222</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>660</v>
@@ -2465,13 +2495,13 @@
         <v>687389</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,7 +2557,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2539,13 +2569,13 @@
         <v>142958</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>150</v>
@@ -2554,13 +2584,13 @@
         <v>154341</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>284</v>
@@ -2569,13 +2599,13 @@
         <v>297300</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2620,13 @@
         <v>261790</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>279</v>
@@ -2605,13 +2635,13 @@
         <v>284844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>525</v>
@@ -2620,13 +2650,13 @@
         <v>546633</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,7 +2712,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2694,13 +2724,13 @@
         <v>55927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -2709,13 +2739,13 @@
         <v>97243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
@@ -2724,13 +2754,13 @@
         <v>153170</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2775,13 @@
         <v>216422</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>218</v>
@@ -2760,13 +2790,13 @@
         <v>221839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>437</v>
@@ -2775,13 +2805,13 @@
         <v>438261</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2867,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2879,13 @@
         <v>33235</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -2864,13 +2894,13 @@
         <v>62401</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -2879,13 +2909,13 @@
         <v>95637</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2930,13 @@
         <v>306294</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>384</v>
@@ -2915,13 +2945,13 @@
         <v>392745</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>699</v>
@@ -2930,13 +2960,13 @@
         <v>699038</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3034,13 @@
         <v>784940</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>856</v>
@@ -3019,13 +3049,13 @@
         <v>878804</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>1624</v>
@@ -3034,13 +3064,13 @@
         <v>1663744</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3085,13 @@
         <v>1668761</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>1823</v>
@@ -3169,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBCDC47-2FE9-46E3-A597-C40428A2F80F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9D48AF-BBA0-48BD-86ED-ABCDA64946B0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3305,7 +3335,7 @@
         <v>108</v>
       </c>
       <c r="I4" s="7">
-        <v>109481</v>
+        <v>109482</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>147</v>
@@ -3407,7 +3437,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3448,13 +3478,13 @@
         <v>203442</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>182</v>
@@ -3463,13 +3493,13 @@
         <v>190069</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>384</v>
@@ -3478,13 +3508,13 @@
         <v>393510</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3529,13 @@
         <v>392872</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -3514,13 +3544,13 @@
         <v>368741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>717</v>
@@ -3529,13 +3559,13 @@
         <v>761613</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3633,13 @@
         <v>197576</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>223</v>
@@ -3618,13 +3648,13 @@
         <v>235411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>415</v>
@@ -3633,13 +3663,13 @@
         <v>432988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3684,13 @@
         <v>388154</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>398</v>
@@ -3669,13 +3699,13 @@
         <v>424043</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7">
         <v>768</v>
@@ -3684,13 +3714,13 @@
         <v>812196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3776,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3758,13 +3788,13 @@
         <v>179410</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>151</v>
@@ -3773,13 +3803,13 @@
         <v>171183</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>311</v>
@@ -3788,13 +3818,13 @@
         <v>350593</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,16 +3836,16 @@
         <v>323</v>
       </c>
       <c r="D14" s="7">
-        <v>363430</v>
+        <v>363429</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H14" s="7">
         <v>341</v>
@@ -3857,7 +3887,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3901,7 +3931,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3919,7 +3949,7 @@
         <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -3928,13 +3958,13 @@
         <v>123629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>215</v>
@@ -3943,13 +3973,13 @@
         <v>234172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3994,13 @@
         <v>250767</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>241</v>
@@ -3979,13 +4009,13 @@
         <v>267086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>471</v>
@@ -3994,13 +4024,13 @@
         <v>517853</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,7 +4086,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4068,13 +4098,13 @@
         <v>56218</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -4083,13 +4113,13 @@
         <v>80944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -4098,13 +4128,13 @@
         <v>137162</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4149,13 @@
         <v>391198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>485</v>
@@ -4134,13 +4164,13 @@
         <v>522143</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>839</v>
@@ -4149,13 +4179,13 @@
         <v>913341</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4253,13 @@
         <v>874567</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>855</v>
@@ -4238,13 +4268,13 @@
         <v>910717</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>1683</v>
@@ -4253,13 +4283,13 @@
         <v>1785284</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4304,13 @@
         <v>2037304</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>2059</v>
@@ -4289,28 +4319,28 @@
         <v>2233767</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>3964</v>
       </c>
       <c r="N23" s="7">
-        <v>4271070</v>
+        <v>4271071</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4382,7 @@
         <v>5647</v>
       </c>
       <c r="N24" s="7">
-        <v>6056354</v>
+        <v>6056355</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4388,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787AB479-34FB-4E01-9726-A20C8EEDAA61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8898A33-0390-4168-877C-F6D5EA90F6F1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4405,7 +4435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +4542,13 @@
         <v>102453</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>88</v>
@@ -4527,13 +4557,13 @@
         <v>87929</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>183</v>
@@ -4542,13 +4572,13 @@
         <v>190382</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4593,13 @@
         <v>250387</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
         <v>271</v>
@@ -4578,10 +4608,10 @@
         <v>264001</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>277</v>
@@ -4682,13 +4712,13 @@
         <v>149838</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>316</v>
@@ -4697,13 +4727,13 @@
         <v>317637</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4748,13 @@
         <v>325278</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>356</v>
@@ -4733,13 +4763,13 @@
         <v>346882</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>669</v>
@@ -4748,13 +4778,13 @@
         <v>672160</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4852,13 @@
         <v>187394</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>177</v>
@@ -4837,13 +4867,13 @@
         <v>172446</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>356</v>
@@ -4852,13 +4882,13 @@
         <v>359840</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4903,13 @@
         <v>370466</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>399</v>
@@ -4888,13 +4918,13 @@
         <v>400634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>751</v>
@@ -4903,13 +4933,13 @@
         <v>771100</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,7 +4995,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4977,13 +5007,13 @@
         <v>141871</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -4992,13 +5022,13 @@
         <v>156838</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>271</v>
@@ -5007,13 +5037,13 @@
         <v>298709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5058,13 @@
         <v>370501</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>362</v>
@@ -5043,13 +5073,13 @@
         <v>388046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>699</v>
@@ -5058,13 +5088,13 @@
         <v>758547</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,7 +5150,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5132,13 +5162,13 @@
         <v>76860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -5147,13 +5177,13 @@
         <v>96903</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -5162,13 +5192,13 @@
         <v>173763</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5213,13 @@
         <v>294142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>258</v>
@@ -5198,13 +5228,13 @@
         <v>298970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
         <v>520</v>
@@ -5213,13 +5243,13 @@
         <v>593112</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,7 +5305,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5287,13 +5317,13 @@
         <v>58227</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -5302,13 +5332,13 @@
         <v>89953</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -5317,13 +5347,13 @@
         <v>148180</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5368,13 @@
         <v>318955</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -5353,13 +5383,13 @@
         <v>414874</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>690</v>
@@ -5368,13 +5398,13 @@
         <v>733829</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5472,13 @@
         <v>734604</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>730</v>
@@ -5457,13 +5487,13 @@
         <v>753907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>196</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M22" s="7">
         <v>1421</v>
@@ -5472,13 +5502,13 @@
         <v>1488511</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,16 +5520,16 @@
         <v>1839</v>
       </c>
       <c r="D23" s="7">
-        <v>1929730</v>
+        <v>1929729</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H23" s="7">
         <v>1997</v>
@@ -5508,28 +5538,28 @@
         <v>2113408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>380</v>
+        <v>206</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>383</v>
       </c>
       <c r="M23" s="7">
         <v>3836</v>
       </c>
       <c r="N23" s="7">
-        <v>4043138</v>
+        <v>4043137</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,7 +5571,7 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5571,7 +5601,7 @@
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5607,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411FA0F8-5F8E-481A-A1FB-47C6D9D2CB25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EC5C38-935E-4625-87C5-4BCAA476F06E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5624,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5731,13 +5761,13 @@
         <v>76668</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5746,13 +5776,13 @@
         <v>52563</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -5761,13 +5791,13 @@
         <v>129231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5812,13 @@
         <v>281090</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H5" s="7">
         <v>169</v>
@@ -5797,13 +5827,13 @@
         <v>291933</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M5" s="7">
         <v>295</v>
@@ -5812,13 +5842,13 @@
         <v>573023</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5916,13 @@
         <v>91678</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -5901,13 +5931,13 @@
         <v>92477</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
@@ -5916,13 +5946,13 @@
         <v>184156</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>267</v>
+        <v>412</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5967,13 @@
         <v>315522</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H8" s="7">
         <v>353</v>
@@ -5952,13 +5982,13 @@
         <v>393398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M8" s="7">
         <v>571</v>
@@ -5967,13 +5997,13 @@
         <v>708919</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>277</v>
+        <v>421</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6071,13 @@
         <v>119760</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -6056,13 +6086,13 @@
         <v>119928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M10" s="7">
         <v>297</v>
@@ -6071,13 +6101,13 @@
         <v>239688</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6122,13 @@
         <v>423323</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -6107,13 +6137,13 @@
         <v>452268</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M11" s="7">
         <v>1054</v>
@@ -6122,13 +6152,13 @@
         <v>875592</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,7 +6214,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6196,13 +6226,13 @@
         <v>139996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H13" s="7">
         <v>239</v>
@@ -6211,13 +6241,13 @@
         <v>156500</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M13" s="7">
         <v>379</v>
@@ -6226,13 +6256,13 @@
         <v>296496</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6277,13 @@
         <v>562598</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="H14" s="7">
         <v>878</v>
@@ -6262,13 +6292,13 @@
         <v>577307</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M14" s="7">
         <v>1379</v>
@@ -6277,13 +6307,13 @@
         <v>1139904</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,7 +6369,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6351,13 +6381,13 @@
         <v>112235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>461</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="H16" s="7">
         <v>212</v>
@@ -6366,13 +6396,13 @@
         <v>120268</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="M16" s="7">
         <v>327</v>
@@ -6381,13 +6411,13 @@
         <v>232504</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6432,13 @@
         <v>472535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>470</v>
       </c>
       <c r="H17" s="7">
         <v>768</v>
@@ -6417,13 +6447,13 @@
         <v>461405</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="M17" s="7">
         <v>1298</v>
@@ -6432,13 +6462,13 @@
         <v>933939</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6524,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6506,13 +6536,13 @@
         <v>73350</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="H19" s="7">
         <v>194</v>
@@ -6521,13 +6551,13 @@
         <v>104131</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="M19" s="7">
         <v>298</v>
@@ -6536,13 +6566,13 @@
         <v>177480</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6587,13 @@
         <v>607112</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H20" s="7">
         <v>1463</v>
@@ -6572,13 +6602,13 @@
         <v>893999</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="M20" s="7">
         <v>2361</v>
@@ -6587,13 +6617,13 @@
         <v>1501112</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>492</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6691,13 @@
         <v>613687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="H22" s="7">
         <v>941</v>
@@ -6676,13 +6706,13 @@
         <v>645867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>234</v>
+        <v>497</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="M22" s="7">
         <v>1510</v>
@@ -6691,13 +6721,13 @@
         <v>1259555</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6742,13 @@
         <v>2662179</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>492</v>
+        <v>456</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="H23" s="7">
         <v>4275</v>
@@ -6727,13 +6757,13 @@
         <v>3070311</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>242</v>
+        <v>506</v>
       </c>
       <c r="M23" s="7">
         <v>6958</v>
@@ -6742,13 +6772,13 @@
         <v>5732489</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC32082-00E7-4C0A-A961-9ACF3ED824D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8606C011-29A6-4029-895F-89B8E3A34380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB73CD2F-B7AB-4D71-B4A4-677FEACF3011}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46D7B239-C64F-4BE5-B366-0DD10212CC90}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2007 (Tasa respuesta: 78,1%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>36,18%</t>
   </si>
   <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
   </si>
   <si>
     <t>34,61%</t>
   </si>
   <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>63,82%</t>
   </si>
   <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
   </si>
   <si>
     <t>66,89%</t>
   </si>
   <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
   </si>
   <si>
     <t>65,39%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1054 +140,1030 @@
     <t>39,78%</t>
   </si>
   <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
   </si>
   <si>
     <t>39,42%</t>
   </si>
   <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
     <t>35,56%</t>
   </si>
   <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>64,44%</t>
   </si>
   <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>30,76%</t>
   </si>
   <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
   </si>
   <si>
     <t>69,24%</t>
   </si>
   <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>73,71%</t>
   </si>
   <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
+    <t>71,99%</t>
   </si>
   <si>
     <t>75,3%</t>
@@ -1196,10 +1172,10 @@
     <t>73,09%</t>
   </si>
   <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
@@ -1980,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775BA65E-D75D-43B4-85E7-C7083B506851}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032F34F4-8B10-43AC-A5A3-56679C48C0DD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2450,7 +2426,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2441,13 @@
         <v>308167</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>360</v>
@@ -2480,28 +2456,28 @@
         <v>379222</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>660</v>
       </c>
       <c r="N11" s="7">
-        <v>687389</v>
+        <v>687388</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,7 +2519,7 @@
         <v>1060</v>
       </c>
       <c r="N12" s="7">
-        <v>1105457</v>
+        <v>1105456</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2557,7 +2533,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2569,13 +2545,13 @@
         <v>142958</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>150</v>
@@ -2584,13 +2560,13 @@
         <v>154341</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>284</v>
@@ -2599,13 +2575,13 @@
         <v>297300</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2596,13 @@
         <v>261790</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>279</v>
@@ -2635,13 +2611,13 @@
         <v>284844</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>525</v>
@@ -2650,13 +2626,13 @@
         <v>546633</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,7 +2688,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2724,13 +2700,13 @@
         <v>55927</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -2739,13 +2715,13 @@
         <v>97243</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
@@ -2754,13 +2730,13 @@
         <v>153170</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2751,13 @@
         <v>216422</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>218</v>
@@ -2790,13 +2766,13 @@
         <v>221839</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>437</v>
@@ -2805,13 +2781,13 @@
         <v>438261</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2843,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2879,13 +2855,13 @@
         <v>33235</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -2894,13 +2870,13 @@
         <v>62401</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -2909,13 +2885,13 @@
         <v>95637</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2906,13 @@
         <v>306294</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>384</v>
@@ -2945,13 +2921,13 @@
         <v>392745</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>699</v>
@@ -2960,13 +2936,13 @@
         <v>699038</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3010,13 @@
         <v>784940</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>856</v>
@@ -3049,13 +3025,13 @@
         <v>878804</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>1624</v>
@@ -3064,13 +3040,13 @@
         <v>1663744</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3061,13 @@
         <v>1668761</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>1823</v>
@@ -3199,7 +3175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9D48AF-BBA0-48BD-86ED-ABCDA64946B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAE26A0-9FDE-4CEC-971C-01BCB16BCEDC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3335,7 +3311,7 @@
         <v>108</v>
       </c>
       <c r="I4" s="7">
-        <v>109482</v>
+        <v>109481</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>147</v>
@@ -3437,7 +3413,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370991</v>
+        <v>370990</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3478,13 +3454,13 @@
         <v>203442</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>182</v>
@@ -3493,13 +3469,13 @@
         <v>190069</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>165</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>384</v>
@@ -3508,13 +3484,13 @@
         <v>393510</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3505,13 @@
         <v>392872</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -3544,13 +3520,13 @@
         <v>368741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>717</v>
@@ -3559,13 +3535,13 @@
         <v>761613</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3609,13 @@
         <v>197576</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>223</v>
@@ -3648,13 +3624,13 @@
         <v>235411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>415</v>
@@ -3663,13 +3639,13 @@
         <v>432988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3660,13 @@
         <v>388154</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>398</v>
@@ -3699,13 +3675,13 @@
         <v>424043</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>768</v>
@@ -3714,13 +3690,13 @@
         <v>812196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,7 +3752,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3788,13 +3764,13 @@
         <v>179410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>151</v>
@@ -3803,13 +3779,13 @@
         <v>171183</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>311</v>
@@ -3818,13 +3794,13 @@
         <v>350593</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,16 +3812,16 @@
         <v>323</v>
       </c>
       <c r="D14" s="7">
-        <v>363429</v>
+        <v>363430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>341</v>
@@ -3854,13 +3830,13 @@
         <v>390245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>664</v>
@@ -3869,13 +3845,13 @@
         <v>753674</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,7 +3863,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542839</v>
+        <v>542840</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3931,7 +3907,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3943,13 +3919,13 @@
         <v>110543</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -3958,13 +3934,13 @@
         <v>123629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>215</v>
@@ -3973,13 +3949,13 @@
         <v>234172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +3970,13 @@
         <v>250767</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>241</v>
@@ -4009,13 +3985,13 @@
         <v>267086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>471</v>
@@ -4024,13 +4000,13 @@
         <v>517853</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,7 +4062,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4098,13 +4074,13 @@
         <v>56218</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -4113,13 +4089,13 @@
         <v>80944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -4128,13 +4104,13 @@
         <v>137162</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4125,13 @@
         <v>391198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>485</v>
@@ -4164,13 +4140,13 @@
         <v>522143</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>839</v>
@@ -4179,13 +4155,13 @@
         <v>913341</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4229,13 @@
         <v>874567</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>163</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H22" s="7">
         <v>855</v>
@@ -4268,13 +4244,13 @@
         <v>910717</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M22" s="7">
         <v>1683</v>
@@ -4283,13 +4259,13 @@
         <v>1785284</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,7 +4280,7 @@
         <v>2037304</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>256</v>
@@ -4316,7 +4292,7 @@
         <v>2059</v>
       </c>
       <c r="I23" s="7">
-        <v>2233767</v>
+        <v>2233766</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>258</v>
@@ -4367,7 +4343,7 @@
         <v>2914</v>
       </c>
       <c r="I24" s="7">
-        <v>3144484</v>
+        <v>3144483</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4418,7 +4394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8898A33-0390-4168-877C-F6D5EA90F6F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6684976B-FAE6-4164-A614-427B87BEED8E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4563,7 +4539,7 @@
         <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>183</v>
@@ -4572,13 +4548,13 @@
         <v>190382</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4569,13 @@
         <v>250387</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>271</v>
@@ -4608,13 +4584,13 @@
         <v>264001</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>507</v>
@@ -4623,13 +4599,13 @@
         <v>514388</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4673,13 @@
         <v>167800</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>154</v>
@@ -4712,13 +4688,13 @@
         <v>149838</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>316</v>
@@ -4727,13 +4703,13 @@
         <v>317637</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4724,13 @@
         <v>325278</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>356</v>
@@ -4995,7 +4971,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5013,7 +4989,7 @@
         <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -5022,13 +4998,13 @@
         <v>156838</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>271</v>
@@ -5037,13 +5013,13 @@
         <v>298709</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5034,13 @@
         <v>370501</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
         <v>362</v>
@@ -5073,13 +5049,13 @@
         <v>388046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>699</v>
@@ -5088,13 +5064,13 @@
         <v>758547</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,7 +5126,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5162,13 +5138,13 @@
         <v>76860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -5177,13 +5153,13 @@
         <v>96903</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -5192,13 +5168,13 @@
         <v>173763</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5189,13 @@
         <v>294142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>258</v>
@@ -5228,13 +5204,13 @@
         <v>298970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>520</v>
@@ -5243,13 +5219,13 @@
         <v>593112</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,7 +5281,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5317,13 +5293,13 @@
         <v>58227</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -5332,13 +5308,13 @@
         <v>89953</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>114</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -5347,13 +5323,13 @@
         <v>148180</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5344,13 @@
         <v>318955</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -5383,13 +5359,13 @@
         <v>414874</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>690</v>
@@ -5398,13 +5374,13 @@
         <v>733829</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5448,13 @@
         <v>734604</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H22" s="7">
         <v>730</v>
@@ -5487,13 +5463,13 @@
         <v>753907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>196</v>
+        <v>364</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="M22" s="7">
         <v>1421</v>
@@ -5502,13 +5478,13 @@
         <v>1488511</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,16 +5496,16 @@
         <v>1839</v>
       </c>
       <c r="D23" s="7">
-        <v>1929729</v>
+        <v>1929730</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="H23" s="7">
         <v>1997</v>
@@ -5538,13 +5514,13 @@
         <v>2113408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>206</v>
+        <v>373</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="M23" s="7">
         <v>3836</v>
@@ -5553,13 +5529,13 @@
         <v>4043137</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,7 +5547,7 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5637,7 +5613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EC5C38-935E-4625-87C5-4BCAA476F06E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C319C5-3FD3-4B73-9ADF-95807D9E4CF6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5654,7 +5630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5761,13 +5737,13 @@
         <v>76668</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5776,13 +5752,13 @@
         <v>52563</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -5791,13 +5767,13 @@
         <v>129231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5788,13 @@
         <v>281090</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H5" s="7">
         <v>169</v>
@@ -5827,13 +5803,13 @@
         <v>291933</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>295</v>
@@ -5842,13 +5818,13 @@
         <v>573023</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5892,13 @@
         <v>91678</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -5931,13 +5907,13 @@
         <v>92477</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
@@ -5946,13 +5922,13 @@
         <v>184156</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5943,13 @@
         <v>315522</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H8" s="7">
         <v>353</v>
@@ -5982,13 +5958,13 @@
         <v>393398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M8" s="7">
         <v>571</v>
@@ -5997,13 +5973,13 @@
         <v>708919</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6047,13 @@
         <v>119760</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -6086,13 +6062,13 @@
         <v>119928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>297</v>
@@ -6101,13 +6077,13 @@
         <v>239688</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6098,13 @@
         <v>423323</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -6137,13 +6113,13 @@
         <v>452268</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>1054</v>
@@ -6152,13 +6128,13 @@
         <v>875592</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,7 +6190,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6226,13 +6202,13 @@
         <v>139996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>239</v>
@@ -6241,13 +6217,13 @@
         <v>156500</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>379</v>
@@ -6256,13 +6232,13 @@
         <v>296496</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6253,13 @@
         <v>562598</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>878</v>
@@ -6292,13 +6268,13 @@
         <v>577307</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>1379</v>
@@ -6307,13 +6283,13 @@
         <v>1139904</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,7 +6345,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6381,13 +6357,13 @@
         <v>112235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>212</v>
@@ -6396,13 +6372,13 @@
         <v>120268</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M16" s="7">
         <v>327</v>
@@ -6411,13 +6387,13 @@
         <v>232504</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6408,13 @@
         <v>472535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H17" s="7">
         <v>768</v>
@@ -6447,13 +6423,13 @@
         <v>461405</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="M17" s="7">
         <v>1298</v>
@@ -6462,13 +6438,13 @@
         <v>933939</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,7 +6500,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6536,13 +6512,13 @@
         <v>73350</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H19" s="7">
         <v>194</v>
@@ -6551,13 +6527,13 @@
         <v>104131</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="M19" s="7">
         <v>298</v>
@@ -6566,13 +6542,13 @@
         <v>177480</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6563,13 @@
         <v>607112</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>1463</v>
@@ -6602,13 +6578,13 @@
         <v>893999</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>2361</v>
@@ -6617,13 +6593,13 @@
         <v>1501112</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,13 +6667,13 @@
         <v>613687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="H22" s="7">
         <v>941</v>
@@ -6706,13 +6682,13 @@
         <v>645867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="M22" s="7">
         <v>1510</v>
@@ -6721,13 +6697,13 @@
         <v>1259555</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6718,13 @@
         <v>2662179</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="H23" s="7">
         <v>4275</v>
@@ -6757,13 +6733,13 @@
         <v>3070311</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>6958</v>
@@ -6772,13 +6748,13 @@
         <v>5732489</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8606C011-29A6-4029-895F-89B8E3A34380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B2F6AC2-B2A8-43B1-BC88-ABF63212F678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46D7B239-C64F-4BE5-B366-0DD10212CC90}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5412A941-2BB8-4ABD-A233-ECFD0BDCE757}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2007 (Tasa respuesta: 78,1%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>36,18%</t>
   </si>
   <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
   </si>
   <si>
     <t>34,61%</t>
   </si>
   <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>63,82%</t>
   </si>
   <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
   </si>
   <si>
     <t>66,89%</t>
   </si>
   <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
   </si>
   <si>
     <t>65,39%</t>
   </si>
   <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>39,78%</t>
   </si>
   <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
   </si>
   <si>
     <t>39,42%</t>
   </si>
   <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
   </si>
   <si>
     <t>39,61%</t>
   </si>
   <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
   </si>
   <si>
     <t>60,22%</t>
   </si>
   <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
   </si>
   <si>
     <t>60,58%</t>
   </si>
   <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>60,39%</t>
   </si>
   <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,1354 +197,1348 @@
     <t>38,6%</t>
   </si>
   <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
     <t>34,01%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
   </si>
   <si>
     <t>65,99%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
+    <t>79,32%</t>
   </si>
   <si>
     <t>76,71%</t>
   </si>
   <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>81,27%</t>
   </si>
   <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
+    <t>81,28%</t>
   </si>
   <si>
     <t>81,99%</t>
   </si>
   <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032F34F4-8B10-43AC-A5A3-56679C48C0DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5507FC-5467-4D17-80CF-87519723B5D7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2396,7 +2390,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
         <v>215</v>
@@ -2405,13 +2399,13 @@
         <v>224343</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>400</v>
@@ -2420,13 +2414,13 @@
         <v>418068</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,10 +2438,10 @@
         <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>360</v>
@@ -2456,25 +2450,25 @@
         <v>379222</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>660</v>
       </c>
       <c r="N11" s="7">
-        <v>687388</v>
+        <v>687389</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>66</v>
@@ -2519,7 +2513,7 @@
         <v>1060</v>
       </c>
       <c r="N12" s="7">
-        <v>1105456</v>
+        <v>1105457</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3175,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAE26A0-9FDE-4CEC-971C-01BCB16BCEDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D6247E-0DBC-4A94-ADC3-103E43AE913F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3469,13 +3463,13 @@
         <v>190069</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>384</v>
@@ -3484,13 +3478,13 @@
         <v>393510</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3499,13 @@
         <v>392872</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -3520,13 +3514,13 @@
         <v>368741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>717</v>
@@ -3535,13 +3529,13 @@
         <v>761613</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3603,13 @@
         <v>197576</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>223</v>
@@ -3624,13 +3618,13 @@
         <v>235411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>415</v>
@@ -3639,10 +3633,10 @@
         <v>432988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>186</v>
@@ -3690,13 +3684,13 @@
         <v>812196</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3758,13 @@
         <v>179410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>151</v>
@@ -3779,13 +3773,13 @@
         <v>171183</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>311</v>
@@ -3794,13 +3788,13 @@
         <v>350593</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3809,13 @@
         <v>363430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
         <v>341</v>
@@ -3830,13 +3824,13 @@
         <v>390245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>664</v>
@@ -3845,13 +3839,13 @@
         <v>753674</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3913,13 @@
         <v>110543</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -3934,13 +3928,13 @@
         <v>123629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
         <v>215</v>
@@ -3949,13 +3943,13 @@
         <v>234172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3964,13 @@
         <v>250767</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>241</v>
@@ -3985,13 +3979,13 @@
         <v>267086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>471</v>
@@ -4000,13 +3994,13 @@
         <v>517853</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4068,13 @@
         <v>56218</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -4089,13 +4083,13 @@
         <v>80944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -4104,13 +4098,13 @@
         <v>137162</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4119,13 @@
         <v>391198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>485</v>
@@ -4140,13 +4134,13 @@
         <v>522143</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>839</v>
@@ -4155,13 +4149,13 @@
         <v>913341</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4223,13 @@
         <v>874567</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>855</v>
@@ -4244,13 +4238,13 @@
         <v>910717</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>1683</v>
@@ -4259,13 +4253,13 @@
         <v>1785284</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,43 +4274,43 @@
         <v>2037304</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H23" s="7">
         <v>2059</v>
       </c>
       <c r="I23" s="7">
-        <v>2233766</v>
+        <v>2233767</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>3964</v>
       </c>
       <c r="N23" s="7">
-        <v>4271071</v>
+        <v>4271070</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,7 +4337,7 @@
         <v>2914</v>
       </c>
       <c r="I24" s="7">
-        <v>3144483</v>
+        <v>3144484</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4358,7 +4352,7 @@
         <v>5647</v>
       </c>
       <c r="N24" s="7">
-        <v>6056355</v>
+        <v>6056354</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4394,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6684976B-FAE6-4164-A614-427B87BEED8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B4858F-A5C5-49CC-9800-EAB4135A69E4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4411,7 +4405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4518,13 +4512,13 @@
         <v>102453</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>88</v>
@@ -4533,13 +4527,13 @@
         <v>87929</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>183</v>
@@ -4548,13 +4542,13 @@
         <v>190382</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4563,13 @@
         <v>250387</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>271</v>
@@ -4584,13 +4578,13 @@
         <v>264001</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>507</v>
@@ -4599,13 +4593,13 @@
         <v>514388</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4667,13 @@
         <v>167800</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>154</v>
@@ -4688,13 +4682,13 @@
         <v>149838</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>316</v>
@@ -4703,13 +4697,13 @@
         <v>317637</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4718,13 @@
         <v>325278</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>356</v>
@@ -4739,13 +4733,13 @@
         <v>346882</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>669</v>
@@ -4754,13 +4748,13 @@
         <v>672160</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4822,13 @@
         <v>187394</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>177</v>
@@ -4843,13 +4837,13 @@
         <v>172446</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>356</v>
@@ -4858,13 +4852,13 @@
         <v>359840</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4873,13 @@
         <v>370466</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>399</v>
@@ -4894,13 +4888,13 @@
         <v>400634</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>751</v>
@@ -4909,13 +4903,13 @@
         <v>771100</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4977,13 @@
         <v>141871</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -4998,10 +4992,10 @@
         <v>156838</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>320</v>
@@ -5037,10 +5031,10 @@
         <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>325</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H14" s="7">
         <v>362</v>
@@ -5049,13 +5043,13 @@
         <v>388046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
         <v>699</v>
@@ -5064,13 +5058,13 @@
         <v>758547</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5132,13 @@
         <v>76860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -5153,13 +5147,13 @@
         <v>96903</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -5168,13 +5162,13 @@
         <v>173763</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5183,13 @@
         <v>294142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H17" s="7">
         <v>258</v>
@@ -5204,13 +5198,13 @@
         <v>298970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>520</v>
@@ -5219,13 +5213,13 @@
         <v>593112</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5287,13 @@
         <v>58227</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -5308,13 +5302,13 @@
         <v>89953</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>355</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -5323,13 +5317,13 @@
         <v>148180</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5338,13 @@
         <v>318955</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -5359,13 +5353,13 @@
         <v>414874</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>690</v>
@@ -5374,13 +5368,13 @@
         <v>733829</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5442,13 @@
         <v>734604</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H22" s="7">
         <v>730</v>
@@ -5463,13 +5457,13 @@
         <v>753907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>365</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="M22" s="7">
         <v>1421</v>
@@ -5478,13 +5472,13 @@
         <v>1488511</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5493,13 @@
         <v>1929730</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H23" s="7">
         <v>1997</v>
@@ -5514,28 +5508,28 @@
         <v>2113408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>3836</v>
       </c>
       <c r="N23" s="7">
-        <v>4043137</v>
+        <v>4043138</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,7 +5571,7 @@
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5613,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C319C5-3FD3-4B73-9ADF-95807D9E4CF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5465583-0969-4CF1-8300-49BAA05629CF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5630,7 +5624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5737,13 +5731,13 @@
         <v>76668</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5752,13 +5746,13 @@
         <v>52563</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -5767,13 +5761,13 @@
         <v>129231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5782,13 @@
         <v>281090</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="H5" s="7">
         <v>169</v>
@@ -5803,13 +5797,13 @@
         <v>291933</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M5" s="7">
         <v>295</v>
@@ -5818,13 +5812,13 @@
         <v>573023</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5886,13 @@
         <v>91678</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -5907,13 +5901,13 @@
         <v>92477</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
@@ -5922,13 +5916,13 @@
         <v>184156</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>404</v>
+        <v>267</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5937,13 @@
         <v>315522</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="H8" s="7">
         <v>353</v>
@@ -5958,13 +5952,13 @@
         <v>393398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="M8" s="7">
         <v>571</v>
@@ -5973,13 +5967,13 @@
         <v>708919</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>413</v>
+        <v>277</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6041,13 @@
         <v>119760</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -6062,13 +6056,13 @@
         <v>119928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M10" s="7">
         <v>297</v>
@@ -6077,13 +6071,13 @@
         <v>239688</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6092,13 @@
         <v>423323</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
@@ -6113,13 +6107,13 @@
         <v>452268</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M11" s="7">
         <v>1054</v>
@@ -6128,13 +6122,13 @@
         <v>875592</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6196,13 @@
         <v>139996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H13" s="7">
         <v>239</v>
@@ -6217,13 +6211,13 @@
         <v>156500</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M13" s="7">
         <v>379</v>
@@ -6232,13 +6226,13 @@
         <v>296496</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6247,13 @@
         <v>562598</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H14" s="7">
         <v>878</v>
@@ -6268,13 +6262,13 @@
         <v>577307</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M14" s="7">
         <v>1379</v>
@@ -6283,13 +6277,13 @@
         <v>1139904</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6351,13 @@
         <v>112235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>231</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H16" s="7">
         <v>212</v>
@@ -6372,13 +6366,13 @@
         <v>120268</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M16" s="7">
         <v>327</v>
@@ -6387,13 +6381,13 @@
         <v>232504</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6402,13 @@
         <v>472535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>768</v>
@@ -6438,7 +6432,7 @@
         <v>933939</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>466</v>
@@ -6548,7 +6542,7 @@
         <v>475</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>476</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6557,13 @@
         <v>607112</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>1463</v>
@@ -6578,13 +6572,13 @@
         <v>893999</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>2361</v>
@@ -6593,13 +6587,13 @@
         <v>1501112</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6661,13 @@
         <v>613687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="H22" s="7">
         <v>941</v>
@@ -6682,13 +6676,13 @@
         <v>645867</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="M22" s="7">
         <v>1510</v>
@@ -6697,13 +6691,13 @@
         <v>1259555</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6712,13 @@
         <v>2662179</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="H23" s="7">
         <v>4275</v>
@@ -6733,13 +6727,13 @@
         <v>3070311</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>497</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>498</v>
+        <v>242</v>
       </c>
       <c r="M23" s="7">
         <v>6958</v>
@@ -6748,13 +6742,13 @@
         <v>5732489</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B2F6AC2-B2A8-43B1-BC88-ABF63212F678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CEA3AE-92AE-4BB8-AC5A-2E7D1BB81A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5412A941-2BB8-4ABD-A233-ECFD0BDCE757}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{26169E1A-8755-4D4C-99C0-BE60728093A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="573">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2007 (Tasa respuesta: 78,1%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>39,78%</t>
@@ -191,7 +191,7 @@
     <t>63,24%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>38,6%</t>
@@ -242,7 +242,7 @@
     <t>65,13%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>35,32%</t>
@@ -299,7 +299,7 @@
     <t>68,14%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>20,53%</t>
@@ -356,61 +356,106 @@
     <t>77,71%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>31,99%</t>
@@ -719,826 +764,1000 @@
     <t>72,33%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>16,3%</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
   <si>
     <t>17,94%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
   </si>
   <si>
     <t>82,06%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
 </sst>
 </file>
@@ -1950,8 +2169,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5507FC-5467-4D17-80CF-87519723B5D7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484ED755-B562-4714-A1E9-1A5CCAE0CE48}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2101,7 +2320,7 @@
         <v>261</v>
       </c>
       <c r="N4" s="7">
-        <v>254598</v>
+        <v>254597</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2203,7 +2422,7 @@
         <v>757</v>
       </c>
       <c r="N6" s="7">
-        <v>735654</v>
+        <v>735653</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2843,10 +3062,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D19" s="7">
-        <v>33235</v>
+        <v>26292</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2858,10 +3077,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I19" s="7">
-        <v>62401</v>
+        <v>51000</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2873,10 +3092,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="N19" s="7">
-        <v>95637</v>
+        <v>77292</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2894,10 +3113,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>315</v>
+        <v>192</v>
       </c>
       <c r="D20" s="7">
-        <v>306294</v>
+        <v>186473</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2909,10 +3128,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>384</v>
+        <v>212</v>
       </c>
       <c r="I20" s="7">
-        <v>392745</v>
+        <v>195938</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2924,10 +3143,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>699</v>
+        <v>404</v>
       </c>
       <c r="N20" s="7">
-        <v>699038</v>
+        <v>382411</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2945,10 +3164,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>349</v>
+        <v>219</v>
       </c>
       <c r="D21" s="7">
-        <v>339529</v>
+        <v>212765</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2960,10 +3179,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>449</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>455146</v>
+        <v>246938</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2975,10 +3194,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>798</v>
+        <v>486</v>
       </c>
       <c r="N21" s="7">
-        <v>794675</v>
+        <v>459703</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2992,34 +3211,34 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>768</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>784940</v>
+        <v>6943</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="7">
+        <v>10</v>
+      </c>
+      <c r="I22" s="7">
+        <v>11401</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="7">
-        <v>856</v>
-      </c>
-      <c r="I22" s="7">
-        <v>878804</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>128</v>
@@ -3028,19 +3247,19 @@
         <v>129</v>
       </c>
       <c r="M22" s="7">
-        <v>1624</v>
+        <v>17</v>
       </c>
       <c r="N22" s="7">
-        <v>1663744</v>
+        <v>18344</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,49 +3268,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1638</v>
+        <v>123</v>
       </c>
       <c r="D23" s="7">
-        <v>1668761</v>
+        <v>119821</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>172</v>
+      </c>
+      <c r="I23" s="7">
+        <v>196807</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="7">
-        <v>1823</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1862133</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>295</v>
+      </c>
+      <c r="N23" s="7">
+        <v>316628</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="M23" s="7">
-        <v>3461</v>
-      </c>
-      <c r="N23" s="7">
-        <v>3530894</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,63 +3319,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>130</v>
+      </c>
+      <c r="D24" s="7">
+        <v>126764</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>182</v>
+      </c>
+      <c r="I24" s="7">
+        <v>208208</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>312</v>
+      </c>
+      <c r="N24" s="7">
+        <v>334972</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>768</v>
+      </c>
+      <c r="D25" s="7">
+        <v>784940</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="7">
+        <v>856</v>
+      </c>
+      <c r="I25" s="7">
+        <v>878804</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1624</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1663744</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1638</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1668761</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1823</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1862133</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3461</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3530894</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2406</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2453701</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2679</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2740937</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5085</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>5194638</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3169,8 +3544,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D6247E-0DBC-4A94-ADC3-103E43AE913F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96543C1-7575-483D-A5E7-8C1A07B8FB6E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3186,7 +3561,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3293,28 +3668,28 @@
         <v>127378</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>108</v>
       </c>
       <c r="I4" s="7">
-        <v>109481</v>
+        <v>109482</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>229</v>
@@ -3323,13 +3698,13 @@
         <v>236859</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3719,13 @@
         <v>250884</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>254</v>
@@ -3359,13 +3734,13 @@
         <v>261509</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>505</v>
@@ -3374,13 +3749,13 @@
         <v>512394</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,7 +3782,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3448,13 +3823,13 @@
         <v>203442</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>182</v>
@@ -3463,13 +3838,13 @@
         <v>190069</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>384</v>
@@ -3478,13 +3853,13 @@
         <v>393510</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3874,13 @@
         <v>392872</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -3514,13 +3889,13 @@
         <v>368741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>717</v>
@@ -3529,13 +3904,13 @@
         <v>761613</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3978,13 @@
         <v>197576</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>223</v>
@@ -3618,13 +3993,13 @@
         <v>235411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>415</v>
@@ -3639,7 +4014,7 @@
         <v>75</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +4029,13 @@
         <v>388154</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>398</v>
@@ -3669,13 +4044,13 @@
         <v>424043</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>768</v>
@@ -3687,7 +4062,7 @@
         <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>85</v>
@@ -3758,13 +4133,13 @@
         <v>179410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>151</v>
@@ -3773,13 +4148,13 @@
         <v>171183</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>311</v>
@@ -3788,13 +4163,13 @@
         <v>350593</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,16 +4181,16 @@
         <v>323</v>
       </c>
       <c r="D14" s="7">
-        <v>363430</v>
+        <v>363429</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
         <v>341</v>
@@ -3824,13 +4199,13 @@
         <v>390245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>664</v>
@@ -3839,13 +4214,13 @@
         <v>753674</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,7 +4232,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3913,10 +4288,10 @@
         <v>110543</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -3928,13 +4303,13 @@
         <v>123629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>215</v>
@@ -3943,13 +4318,13 @@
         <v>234172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +4339,13 @@
         <v>250767</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>241</v>
@@ -3979,13 +4354,13 @@
         <v>267086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>471</v>
@@ -3994,13 +4369,13 @@
         <v>517853</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,49 +4437,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>56218</v>
+        <v>41441</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="I19" s="7">
-        <v>80944</v>
+        <v>60493</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="N19" s="7">
-        <v>137162</v>
+        <v>101934</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,49 +4488,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>354</v>
+        <v>203</v>
       </c>
       <c r="D20" s="7">
-        <v>391198</v>
+        <v>221049</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
-        <v>485</v>
+        <v>229</v>
       </c>
       <c r="I20" s="7">
-        <v>522143</v>
+        <v>239100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
-        <v>839</v>
+        <v>432</v>
       </c>
       <c r="N20" s="7">
-        <v>913341</v>
+        <v>460150</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,10 +4539,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>404</v>
+        <v>239</v>
       </c>
       <c r="D21" s="7">
-        <v>447416</v>
+        <v>262490</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4179,10 +4554,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>564</v>
+        <v>290</v>
       </c>
       <c r="I21" s="7">
-        <v>603087</v>
+        <v>299593</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4194,10 +4569,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>968</v>
+        <v>529</v>
       </c>
       <c r="N21" s="7">
-        <v>1050503</v>
+        <v>562084</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4211,55 +4586,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>828</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>874567</v>
+        <v>14777</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
-        <v>855</v>
+        <v>18</v>
       </c>
       <c r="I22" s="7">
-        <v>910717</v>
+        <v>20451</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
-        <v>1683</v>
+        <v>32</v>
       </c>
       <c r="N22" s="7">
-        <v>1785284</v>
+        <v>35228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,49 +4643,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1905</v>
+        <v>151</v>
       </c>
       <c r="D23" s="7">
-        <v>2037304</v>
+        <v>170149</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="H23" s="7">
-        <v>2059</v>
+        <v>256</v>
       </c>
       <c r="I23" s="7">
-        <v>2233767</v>
+        <v>283042</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M23" s="7">
-        <v>3964</v>
+        <v>407</v>
       </c>
       <c r="N23" s="7">
-        <v>4271070</v>
+        <v>453191</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,63 +4694,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>165</v>
+      </c>
+      <c r="D24" s="7">
+        <v>184926</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>274</v>
+      </c>
+      <c r="I24" s="7">
+        <v>303493</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>439</v>
+      </c>
+      <c r="N24" s="7">
+        <v>488419</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>828</v>
+      </c>
+      <c r="D25" s="7">
+        <v>874567</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="7">
+        <v>855</v>
+      </c>
+      <c r="I25" s="7">
+        <v>910717</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1683</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1785284</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1905</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2037304</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2059</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2233766</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3964</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4271071</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2733</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2911871</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2914</v>
       </c>
-      <c r="I24" s="7">
-        <v>3144484</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3144483</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5647</v>
       </c>
-      <c r="N24" s="7">
-        <v>6056354</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6056355</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4388,8 +4919,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B4858F-A5C5-49CC-9800-EAB4135A69E4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00997408-114D-46DD-9130-E685878824B2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4405,7 +4936,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +5043,13 @@
         <v>102453</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>88</v>
@@ -4527,13 +5058,13 @@
         <v>87929</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="M4" s="7">
         <v>183</v>
@@ -4542,13 +5073,13 @@
         <v>190382</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +5094,13 @@
         <v>250387</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>271</v>
@@ -4578,13 +5109,13 @@
         <v>264001</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>507</v>
@@ -4593,13 +5124,13 @@
         <v>514388</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +5198,13 @@
         <v>167800</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>154</v>
@@ -4682,13 +5213,13 @@
         <v>149838</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>284</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>316</v>
@@ -4697,13 +5228,13 @@
         <v>317637</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +5249,13 @@
         <v>325278</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>356</v>
@@ -4733,13 +5264,13 @@
         <v>346882</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>669</v>
@@ -4748,13 +5279,13 @@
         <v>672160</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +5353,13 @@
         <v>187394</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="H10" s="7">
         <v>177</v>
@@ -4837,13 +5368,13 @@
         <v>172446</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>356</v>
@@ -4852,13 +5383,13 @@
         <v>359840</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +5404,13 @@
         <v>370466</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>399</v>
@@ -4888,13 +5419,13 @@
         <v>400634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>751</v>
@@ -4903,13 +5434,13 @@
         <v>771100</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +5508,13 @@
         <v>141871</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -4992,13 +5523,13 @@
         <v>156838</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="M13" s="7">
         <v>271</v>
@@ -5007,13 +5538,13 @@
         <v>298709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5559,13 @@
         <v>370501</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="H14" s="7">
         <v>362</v>
@@ -5043,13 +5574,13 @@
         <v>388046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="M14" s="7">
         <v>699</v>
@@ -5058,13 +5589,13 @@
         <v>758547</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5663,13 @@
         <v>76860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -5147,13 +5678,13 @@
         <v>96903</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -5162,13 +5693,13 @@
         <v>173763</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5714,13 @@
         <v>294142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>258</v>
@@ -5198,13 +5729,13 @@
         <v>298970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>520</v>
@@ -5213,13 +5744,13 @@
         <v>593112</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,49 +5812,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7">
-        <v>58227</v>
+        <v>43458</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="I19" s="7">
-        <v>89953</v>
+        <v>61855</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="M19" s="7">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="N19" s="7">
-        <v>148180</v>
+        <v>105313</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,49 +5863,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>339</v>
+        <v>182</v>
       </c>
       <c r="D20" s="7">
-        <v>318955</v>
+        <v>186667</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="I20" s="7">
-        <v>414874</v>
+        <v>215093</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
-        <v>690</v>
+        <v>383</v>
       </c>
       <c r="N20" s="7">
-        <v>733829</v>
+        <v>401761</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,10 +5914,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>401</v>
+        <v>226</v>
       </c>
       <c r="D21" s="7">
-        <v>377182</v>
+        <v>230125</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5398,10 +5929,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="I21" s="7">
-        <v>504827</v>
+        <v>276948</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5413,10 +5944,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>831</v>
+        <v>486</v>
       </c>
       <c r="N21" s="7">
-        <v>882009</v>
+        <v>507074</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5430,55 +5961,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>691</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>734604</v>
+        <v>14769</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
-        <v>730</v>
+        <v>20</v>
       </c>
       <c r="I22" s="7">
-        <v>753907</v>
+        <v>28098</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>404</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="M22" s="7">
-        <v>1421</v>
+        <v>38</v>
       </c>
       <c r="N22" s="7">
-        <v>1488511</v>
+        <v>42867</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,49 +6018,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1839</v>
+        <v>157</v>
       </c>
       <c r="D23" s="7">
-        <v>1929730</v>
+        <v>132288</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
-        <v>1997</v>
+        <v>150</v>
       </c>
       <c r="I23" s="7">
-        <v>2113408</v>
+        <v>199781</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>414</v>
       </c>
       <c r="M23" s="7">
-        <v>3836</v>
+        <v>307</v>
       </c>
       <c r="N23" s="7">
-        <v>4043138</v>
+        <v>332069</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,63 +6069,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>175</v>
+      </c>
+      <c r="D24" s="7">
+        <v>147057</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>170</v>
+      </c>
+      <c r="I24" s="7">
+        <v>227879</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>345</v>
+      </c>
+      <c r="N24" s="7">
+        <v>374936</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>691</v>
+      </c>
+      <c r="D25" s="7">
+        <v>734604</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H25" s="7">
+        <v>730</v>
+      </c>
+      <c r="I25" s="7">
+        <v>753907</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1421</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1488511</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1839</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1929729</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1997</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2113408</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3836</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4043137</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2530</v>
       </c>
-      <c r="D24" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2664333</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2727</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2867315</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5257</v>
       </c>
-      <c r="N24" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>5531648</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5607,8 +6294,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5465583-0969-4CF1-8300-49BAA05629CF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04114A0-EF4D-410D-AE80-DB1EB5308C78}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5624,7 +6311,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5728,46 +6415,46 @@
         <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>76668</v>
+        <v>81833</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>52563</v>
+        <v>50110</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
       </c>
       <c r="N4" s="7">
-        <v>129231</v>
+        <v>131943</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,46 +6466,46 @@
         <v>126</v>
       </c>
       <c r="D5" s="7">
-        <v>281090</v>
+        <v>301614</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="H5" s="7">
         <v>169</v>
       </c>
       <c r="I5" s="7">
-        <v>291933</v>
+        <v>253431</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="M5" s="7">
         <v>295</v>
       </c>
       <c r="N5" s="7">
-        <v>573023</v>
+        <v>555045</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,7 +6517,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="7">
-        <v>357758</v>
+        <v>383447</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5845,7 +6532,7 @@
         <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>344496</v>
+        <v>303541</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5860,7 +6547,7 @@
         <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>702254</v>
+        <v>686988</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5883,46 +6570,46 @@
         <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>91678</v>
+        <v>92292</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>406</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
       </c>
       <c r="I7" s="7">
-        <v>92477</v>
+        <v>84982</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
       </c>
       <c r="N7" s="7">
-        <v>184156</v>
+        <v>177273</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>267</v>
+        <v>456</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,46 +6621,46 @@
         <v>218</v>
       </c>
       <c r="D8" s="7">
-        <v>315522</v>
+        <v>310059</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>413</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="H8" s="7">
         <v>353</v>
       </c>
       <c r="I8" s="7">
-        <v>393398</v>
+        <v>414710</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="M8" s="7">
         <v>571</v>
       </c>
       <c r="N8" s="7">
-        <v>708919</v>
+        <v>724769</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>277</v>
+        <v>464</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,7 +6672,7 @@
         <v>281</v>
       </c>
       <c r="D9" s="7">
-        <v>407200</v>
+        <v>402351</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6000,7 +6687,7 @@
         <v>442</v>
       </c>
       <c r="I9" s="7">
-        <v>485875</v>
+        <v>499692</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6015,7 +6702,7 @@
         <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>893075</v>
+        <v>902042</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6038,46 +6725,46 @@
         <v>116</v>
       </c>
       <c r="D10" s="7">
-        <v>119760</v>
+        <v>117448</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>391</v>
+        <v>467</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
       </c>
       <c r="I10" s="7">
-        <v>119928</v>
+        <v>112481</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="M10" s="7">
         <v>297</v>
       </c>
       <c r="N10" s="7">
-        <v>239688</v>
+        <v>229929</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,46 +6776,46 @@
         <v>410</v>
       </c>
       <c r="D11" s="7">
-        <v>423323</v>
+        <v>405497</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>399</v>
+        <v>476</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="H11" s="7">
         <v>644</v>
       </c>
       <c r="I11" s="7">
-        <v>452268</v>
+        <v>419400</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="M11" s="7">
         <v>1054</v>
       </c>
       <c r="N11" s="7">
-        <v>875592</v>
+        <v>824898</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,7 +6827,7 @@
         <v>526</v>
       </c>
       <c r="D12" s="7">
-        <v>543083</v>
+        <v>522945</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6155,7 +6842,7 @@
         <v>825</v>
       </c>
       <c r="I12" s="7">
-        <v>572196</v>
+        <v>531881</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6170,7 +6857,7 @@
         <v>1351</v>
       </c>
       <c r="N12" s="7">
-        <v>1115280</v>
+        <v>1054827</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6193,46 +6880,46 @@
         <v>140</v>
       </c>
       <c r="D13" s="7">
-        <v>139996</v>
+        <v>135098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="H13" s="7">
         <v>239</v>
       </c>
       <c r="I13" s="7">
-        <v>156500</v>
+        <v>169470</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="M13" s="7">
         <v>379</v>
       </c>
       <c r="N13" s="7">
-        <v>296496</v>
+        <v>304567</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,46 +6931,46 @@
         <v>501</v>
       </c>
       <c r="D14" s="7">
-        <v>562598</v>
+        <v>727830</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="H14" s="7">
         <v>878</v>
       </c>
       <c r="I14" s="7">
-        <v>577307</v>
+        <v>531122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="M14" s="7">
         <v>1379</v>
       </c>
       <c r="N14" s="7">
-        <v>1139904</v>
+        <v>1258952</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,7 +6982,7 @@
         <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>702594</v>
+        <v>862928</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6310,7 +6997,7 @@
         <v>1117</v>
       </c>
       <c r="I15" s="7">
-        <v>733807</v>
+        <v>700592</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6325,7 +7012,7 @@
         <v>1758</v>
       </c>
       <c r="N15" s="7">
-        <v>1436400</v>
+        <v>1563519</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6348,46 +7035,46 @@
         <v>115</v>
       </c>
       <c r="D16" s="7">
-        <v>112235</v>
+        <v>105855</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>504</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="H16" s="7">
         <v>212</v>
       </c>
       <c r="I16" s="7">
-        <v>120268</v>
+        <v>111830</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="M16" s="7">
         <v>327</v>
       </c>
       <c r="N16" s="7">
-        <v>232504</v>
+        <v>217686</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>436</v>
+        <v>509</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,46 +7086,46 @@
         <v>530</v>
       </c>
       <c r="D17" s="7">
-        <v>472535</v>
+        <v>440724</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>513</v>
       </c>
       <c r="H17" s="7">
         <v>768</v>
       </c>
       <c r="I17" s="7">
-        <v>461405</v>
+        <v>422053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="M17" s="7">
         <v>1298</v>
       </c>
       <c r="N17" s="7">
-        <v>933939</v>
+        <v>862776</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,7 +7137,7 @@
         <v>645</v>
       </c>
       <c r="D18" s="7">
-        <v>584770</v>
+        <v>546579</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6465,7 +7152,7 @@
         <v>980</v>
       </c>
       <c r="I18" s="7">
-        <v>581673</v>
+        <v>533883</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6480,7 +7167,7 @@
         <v>1625</v>
       </c>
       <c r="N18" s="7">
-        <v>1166443</v>
+        <v>1080462</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6500,49 +7187,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="D19" s="7">
-        <v>73350</v>
+        <v>47445</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="H19" s="7">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="I19" s="7">
-        <v>104131</v>
+        <v>63437</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="M19" s="7">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="N19" s="7">
-        <v>177480</v>
+        <v>110882</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,49 +7238,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>898</v>
+        <v>489</v>
       </c>
       <c r="D20" s="7">
-        <v>607112</v>
+        <v>311908</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="H20" s="7">
-        <v>1463</v>
+        <v>677</v>
       </c>
       <c r="I20" s="7">
-        <v>893999</v>
+        <v>536472</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="M20" s="7">
-        <v>2361</v>
+        <v>1166</v>
       </c>
       <c r="N20" s="7">
-        <v>1501112</v>
+        <v>848380</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>535</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,10 +7289,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1002</v>
+        <v>556</v>
       </c>
       <c r="D21" s="7">
-        <v>680462</v>
+        <v>359353</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6617,10 +7304,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1657</v>
+        <v>807</v>
       </c>
       <c r="I21" s="7">
-        <v>998130</v>
+        <v>599909</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6632,10 +7319,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2659</v>
+        <v>1363</v>
       </c>
       <c r="N21" s="7">
-        <v>1678592</v>
+        <v>959262</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6649,55 +7336,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>569</v>
+        <v>37</v>
       </c>
       <c r="D22" s="7">
-        <v>613687</v>
+        <v>21718</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="H22" s="7">
-        <v>941</v>
+        <v>64</v>
       </c>
       <c r="I22" s="7">
-        <v>645867</v>
+        <v>31856</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>234</v>
+        <v>541</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="M22" s="7">
-        <v>1510</v>
+        <v>101</v>
       </c>
       <c r="N22" s="7">
-        <v>1259555</v>
+        <v>53575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,49 +7393,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2683</v>
+        <v>409</v>
       </c>
       <c r="D23" s="7">
-        <v>2662179</v>
+        <v>253803</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="H23" s="7">
-        <v>4275</v>
+        <v>786</v>
       </c>
       <c r="I23" s="7">
-        <v>3070311</v>
+        <v>376831</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>242</v>
+        <v>551</v>
       </c>
       <c r="M23" s="7">
-        <v>6958</v>
+        <v>1195</v>
       </c>
       <c r="N23" s="7">
-        <v>5732489</v>
+        <v>630633</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,63 +7444,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>446</v>
+      </c>
+      <c r="D24" s="7">
+        <v>275521</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>850</v>
+      </c>
+      <c r="I24" s="7">
+        <v>408687</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1296</v>
+      </c>
+      <c r="N24" s="7">
+        <v>684208</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>569</v>
+      </c>
+      <c r="D25" s="7">
+        <v>601689</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="H25" s="7">
+        <v>941</v>
+      </c>
+      <c r="I25" s="7">
+        <v>624166</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1510</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1225855</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2683</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2751436</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4275</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2954018</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6958</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5705454</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3252</v>
       </c>
-      <c r="D24" s="7">
-        <v>3275866</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3353125</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5216</v>
       </c>
-      <c r="I24" s="7">
-        <v>3716178</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3578184</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8468</v>
       </c>
-      <c r="N24" s="7">
-        <v>6992044</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6931309</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
